--- a/Cycle Project.xlsx
+++ b/Cycle Project.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14260" windowHeight="20480" tabRatio="500" activeTab="1"/>
-    <workbookView xWindow="1760" yWindow="1760" windowWidth="23840" windowHeight="14300" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="1760" yWindow="1760" windowWidth="23840" windowHeight="14300" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Budget" sheetId="6" r:id="rId1"/>
@@ -27,6 +27,7 @@
     <definedName name="nightly_cost_of_housing">Budget!$B$46</definedName>
     <definedName name="number_of_riders">Budget!$B$9</definedName>
     <definedName name="percent_of_trip_housed">Budget!$B$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Budget!$A$2:$C$80</definedName>
     <definedName name="recurring_costs_per_day_per_rider">Budget!$B$59</definedName>
     <definedName name="recurring_costs_per_rider">Budget!$B$60</definedName>
     <definedName name="total_daily_costs">Budget!$B$29</definedName>
@@ -561,7 +562,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -602,6 +603,10 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -1055,8 +1060,8 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView topLeftCell="A33" workbookViewId="1">
-      <selection activeCell="A80" sqref="A80"/>
+    <sheetView tabSelected="1" view="pageLayout" workbookViewId="1">
+      <selection activeCell="C80" sqref="A2:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1766,12 +1771,13 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+      <mx:PLV Mode="1" OnePage="0" WScale="0"/>
     </ext>
   </extLst>
 </worksheet>
@@ -2175,7 +2181,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" workbookViewId="1">
+    <sheetView workbookViewId="1">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>

--- a/Cycle Project.xlsx
+++ b/Cycle Project.xlsx
@@ -1060,7 +1060,7 @@
   <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
-    <sheetView tabSelected="1" view="pageLayout" workbookViewId="1">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A25" workbookViewId="1">
       <selection activeCell="C80" sqref="A2:C80"/>
     </sheetView>
   </sheetViews>
@@ -1774,6 +1774,10 @@
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;D&amp;CThe Cycle Project_x000D_Budget Projection&amp;RJake Zerrer</oddHeader>
+    <oddFooter>&amp;R&amp;P of &amp;N</oddFooter>
+  </headerFooter>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
